--- a/数据文件/TDOC数据格式.xlsx
+++ b/数据文件/TDOC数据格式.xlsx
@@ -1243,13 +1243,13 @@
   </sheetPr>
   <dimension ref="A1:AF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="40.8916666666667" customWidth="1" style="2" min="1" max="1"/>
     <col width="10.775" customWidth="1" style="2" min="2" max="2"/>
@@ -1373,16 +1373,14 @@
         <f>L3+L4</f>
         <v/>
       </c>
-      <c r="N3" s="7">
-        <f>M3+M4</f>
-        <v/>
+      <c r="N3" s="7" t="n">
+        <v>75</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>90</v>
       </c>
-      <c r="P3" s="7">
-        <f>O3+O4</f>
-        <v/>
+      <c r="P3" s="7" t="n">
+        <v>110</v>
       </c>
       <c r="Q3" s="7">
         <f>P3+P4</f>
@@ -1396,9 +1394,8 @@
         <f>R3+R4</f>
         <v/>
       </c>
-      <c r="T3" s="7">
-        <f>S3+S4</f>
-        <v/>
+      <c r="T3" s="7" t="n">
+        <v>134</v>
       </c>
       <c r="U3" s="7">
         <f>T3+T4</f>
@@ -1594,7 +1591,7 @@
           <t>目的港名称</t>
         </is>
       </c>
-      <c r="N5" s="10" t="inlineStr">
+      <c r="N5" s="9" t="inlineStr">
         <is>
           <t>买方INVOICE No</t>
         </is>
@@ -1604,7 +1601,7 @@
           <t>B/L No提单号</t>
         </is>
       </c>
-      <c r="P5" s="10" t="inlineStr">
+      <c r="P5" s="9" t="inlineStr">
         <is>
           <t>B/L DATE提单日期</t>
         </is>
@@ -1751,7 +1748,7 @@
           <t>destinationName</t>
         </is>
       </c>
-      <c r="N6" s="10" t="inlineStr">
+      <c r="N6" s="9" t="inlineStr">
         <is>
           <t>buyerInvoiceNo</t>
         </is>
@@ -1761,7 +1758,7 @@
           <t>blNo</t>
         </is>
       </c>
-      <c r="P6" s="10" t="inlineStr">
+      <c r="P6" s="9" t="inlineStr">
         <is>
           <t>blDate</t>
         </is>
@@ -1884,7 +1881,7 @@
         </is>
       </c>
       <c r="M7" s="13" t="n"/>
-      <c r="N7" s="13" t="inlineStr">
+      <c r="N7" s="12" t="inlineStr">
         <is>
           <t>custom/buyerInvNo</t>
         </is>
@@ -1894,7 +1891,7 @@
           <t>masterBillNo</t>
         </is>
       </c>
-      <c r="P7" s="13" t="inlineStr">
+      <c r="P7" s="12" t="inlineStr">
         <is>
           <t>masterBillDate</t>
         </is>
@@ -2356,7 +2353,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      3N2206141      822                 20220614        BOOKNO  A071310WX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      3N2206141      821                 20220614        BOOKNO  5      WX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">

--- a/数据文件/TDOC数据格式.xlsx
+++ b/数据文件/TDOC数据格式.xlsx
@@ -1243,13 +1243,13 @@
   </sheetPr>
   <dimension ref="A1:AF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="40.8916666666667" customWidth="1" style="2" min="1" max="1"/>
     <col width="10.775" customWidth="1" style="2" min="2" max="2"/>
@@ -2353,7 +2353,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      3N2206141      821                 20220614        BOOKNO  5      WX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      2              3                   4               BOOKNO  6      WX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">

--- a/数据文件/TDOC数据格式.xlsx
+++ b/数据文件/TDOC数据格式.xlsx
@@ -2353,7 +2353,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      2              3                   4               BOOKNO  6      WX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI                     3                   4               BOOKNO  6      WX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">

--- a/数据文件/TDOC数据格式.xlsx
+++ b/数据文件/TDOC数据格式.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BL格式验证" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BL格式验证" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="blno_list">#REF!</definedName>
@@ -2353,7 +2353,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI                     3                   4               BOOKNO  6      WX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      2              3                   4               BOOKNO  6      WX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">

--- a/数据文件/TDOC数据格式.xlsx
+++ b/数据文件/TDOC数据格式.xlsx
@@ -2353,7 +2353,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      2              3                   4               BOOKNO  6      WX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      23             23                  23              BOOKNO  23     WX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">
